--- a/assets/images/english_level.xlsx
+++ b/assets/images/english_level.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naylorpeter/Documents/apps/VickyInFrance.github.io/assets/images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naylorpeter/Documents/websites/VickyInFrance.github.io/assets/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1311488A-8F53-F848-B00F-56F04F12F5AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80A4650-5973-2345-9D67-B440B6C4D885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="24000" activeTab="1" xr2:uid="{213960AF-0CF3-DB49-AD99-D843377D6787}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Language level
 Use this chart to learn about your current language level</t>
@@ -145,18 +145,6 @@
 Débutant</t>
   </si>
   <si>
-    <t>A2
-Elementaire</t>
-  </si>
-  <si>
-    <t>A2+
-Pre-Intermediaire</t>
-  </si>
-  <si>
-    <t>B1
-Intermediaire</t>
-  </si>
-  <si>
     <t>C1
 Avancé</t>
   </si>
@@ -168,26 +156,47 @@
     <t>Capable d'utiliser l'anglais couramment et avec flexibilité dans un grand nombre de contextes</t>
   </si>
   <si>
-    <t>Expert de haut niveau - peut utiliser l'anglais couramment de façons précise et intuitive dans la plupart des contextes.</t>
-  </si>
-  <si>
     <t>Peut utiliser l'anglais spontanément, avec une certaine aisance, dans un certain nombre de contextes</t>
   </si>
   <si>
-    <t>Peut comprendre et utiliser un anglais basic quand l'interlocuteur parle lentement</t>
-  </si>
-  <si>
     <t>Peut participer dans des conversation courtes. Peut formuler et comprendre des idées plus complexes</t>
   </si>
   <si>
-    <t>Peut utiliser l'anglais, dans un plus grand nombre de contextes</t>
-  </si>
-  <si>
     <t>Peut participer dans des conversation courtes. Peut formuler et comprendre des idées simples</t>
   </si>
   <si>
+    <t>A2
+Elémentaire</t>
+  </si>
+  <si>
+    <t>A2+
+Pre-Intermédiaire</t>
+  </si>
+  <si>
+    <t>B1
+Intermédiaire</t>
+  </si>
+  <si>
+    <t>BASIQUE</t>
+  </si>
+  <si>
+    <t>Peut comprendre et utiliser un anglais basique quand l'interlocuteur parle lentement</t>
+  </si>
+  <si>
     <t>B2
-Intermediare Supérieur</t>
+Intermédiaire - Supérieur</t>
+  </si>
+  <si>
+    <t>INDEPENDANT</t>
+  </si>
+  <si>
+    <t>EXPERIMENTE</t>
+  </si>
+  <si>
+    <t>Peut utiliser l'anglais dans un plus grand nombre de contextes</t>
+  </si>
+  <si>
+    <t>Expert de haut niveau - peut utiliser l'anglais couramment de façon précise et intuitive dans la plupart des contextes.</t>
   </si>
 </sst>
 </file>
@@ -333,93 +342,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,115 +771,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="59" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="21" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="23" t="s">
         <v>23</v>
       </c>
     </row>
@@ -908,7 +917,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
@@ -933,12 +942,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -950,7 +959,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,118 +970,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="59" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>35</v>
+      <c r="E8" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1130,12 +1139,12 @@
     <row r="21" spans="4:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
